--- a/dist/document/dest/2020/10/doctors/73.xlsx
+++ b/dist/document/dest/2020/10/doctors/73.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
-        <v>4600</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>2289</v>
       </c>
-      <c r="C3" s="1">
-        <v>13161750</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>2489</v>
       </c>
-      <c r="C4" s="1">
-        <v>19165300</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>144</v>
       </c>
-      <c r="C5" s="1">
-        <v>1108800</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>638</v>
       </c>
-      <c r="C6" s="1">
-        <v>1907620</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>2407</v>
       </c>
-      <c r="C7" s="1">
-        <v>11072200</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>2321</v>
       </c>
-      <c r="C8" s="1">
-        <v>16084530</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>470</v>
       </c>
-      <c r="C9" s="1">
-        <v>3515600</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>1107</v>
       </c>
-      <c r="C10" s="1">
-        <v>4134645</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>766</v>
       </c>
-      <c r="C11" s="1">
-        <v>7499140</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>2435</v>
       </c>
-      <c r="C12" s="1">
-        <v>34150875</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>1295</v>
       </c>
-      <c r="C13" s="1">
-        <v>18518500</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>3588</v>
       </c>
-      <c r="C14" s="1">
-        <v>9077640</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>98</v>
       </c>
-      <c r="C15" s="1">
-        <v>625240</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>44</v>
       </c>
-      <c r="C16" s="1">
-        <v>187220</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>123</v>
       </c>
-      <c r="C17" s="1">
-        <v>606390</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>126</v>
       </c>
-      <c r="C18" s="1">
-        <v>454860</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>292</v>
       </c>
-      <c r="C19" s="1">
-        <v>1911140</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>6</v>
       </c>
-      <c r="C20" s="1">
-        <v>97800</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>8</v>
       </c>
-      <c r="C21" s="1">
-        <v>1960</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>827</v>
       </c>
-      <c r="C22" s="1">
-        <v>248100</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>216</v>
       </c>
-      <c r="C23" s="1">
-        <v>3326400</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>126</v>
       </c>
-      <c r="C24" s="1">
-        <v>535500</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>2170</v>
       </c>
-      <c r="C25" s="1">
-        <v>5490100</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>294</v>
       </c>
-      <c r="C26" s="1">
-        <v>452760</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>791</v>
       </c>
-      <c r="C27" s="1">
-        <v>1953770</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>2066</v>
       </c>
-      <c r="C28" s="1">
-        <v>7706180</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>90</v>
       </c>
-      <c r="C29" s="1">
-        <v>636300</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>315</v>
       </c>
-      <c r="C30" s="1">
-        <v>1086750</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>60</v>
       </c>
-      <c r="C31" s="1">
-        <v>465000</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>679</v>
       </c>
-      <c r="C32" s="1">
-        <v>3748080</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>412</v>
       </c>
-      <c r="C33" s="1">
-        <v>2401960</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>104</v>
       </c>
-      <c r="C34" s="1">
-        <v>310960</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>56</v>
       </c>
-      <c r="C35" s="1">
-        <v>270480</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -778,9 +676,6 @@
       <c r="B36" s="1">
         <v>384</v>
       </c>
-      <c r="C36" s="1">
-        <v>814080</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -789,9 +684,6 @@
       <c r="B37" s="1">
         <v>507</v>
       </c>
-      <c r="C37" s="1">
-        <v>2088840</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -800,9 +692,6 @@
       <c r="B38" s="1">
         <v>2233</v>
       </c>
-      <c r="C38" s="1">
-        <v>10271800</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -811,9 +700,6 @@
       <c r="B39" s="1">
         <v>368</v>
       </c>
-      <c r="C39" s="1">
-        <v>2116000</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -822,9 +708,6 @@
       <c r="B40" s="1">
         <v>14</v>
       </c>
-      <c r="C40" s="1">
-        <v>14000</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -833,9 +716,6 @@
       <c r="B41" s="1">
         <v>316</v>
       </c>
-      <c r="C41" s="1">
-        <v>652540</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -844,9 +724,6 @@
       <c r="B42" s="1">
         <v>950</v>
       </c>
-      <c r="C42" s="1">
-        <v>3823750</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -855,9 +732,6 @@
       <c r="B43" s="1">
         <v>857</v>
       </c>
-      <c r="C43" s="1">
-        <v>7541600</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -866,9 +740,6 @@
       <c r="B44" s="1">
         <v>1081</v>
       </c>
-      <c r="C44" s="1">
-        <v>4286165</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -877,9 +748,6 @@
       <c r="B45" s="1">
         <v>1293</v>
       </c>
-      <c r="C45" s="1">
-        <v>9956100</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -888,9 +756,6 @@
       <c r="B46" s="1">
         <v>1012</v>
       </c>
-      <c r="C46" s="1">
-        <v>8794280</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -899,9 +764,6 @@
       <c r="B47" s="1">
         <v>20</v>
       </c>
-      <c r="C47" s="1">
-        <v>176000</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -910,9 +772,6 @@
       <c r="B48" s="1">
         <v>144</v>
       </c>
-      <c r="C48" s="1">
-        <v>480240</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -921,9 +780,6 @@
       <c r="B49" s="1">
         <v>20</v>
       </c>
-      <c r="C49" s="1">
-        <v>23600</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -932,9 +788,6 @@
       <c r="B50" s="1">
         <v>2727</v>
       </c>
-      <c r="C50" s="1">
-        <v>20697930</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -943,9 +796,6 @@
       <c r="B51" s="1">
         <v>412</v>
       </c>
-      <c r="C51" s="1">
-        <v>3534960</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -954,9 +804,6 @@
       <c r="B52" s="1">
         <v>21802</v>
       </c>
-      <c r="C52" s="1">
-        <v>42622910</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -965,9 +812,6 @@
       <c r="B53" s="1">
         <v>532</v>
       </c>
-      <c r="C53" s="1">
-        <v>1819440</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -976,9 +820,6 @@
       <c r="B54" s="1">
         <v>656</v>
       </c>
-      <c r="C54" s="1">
-        <v>1886000</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -987,9 +828,6 @@
       <c r="B55" s="1">
         <v>25</v>
       </c>
-      <c r="C55" s="1">
-        <v>233750</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -998,9 +836,6 @@
       <c r="B56" s="1">
         <v>42</v>
       </c>
-      <c r="C56" s="1">
-        <v>222180</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -1009,9 +844,6 @@
       <c r="B57" s="1">
         <v>63</v>
       </c>
-      <c r="C57" s="1">
-        <v>327600</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -1020,9 +852,6 @@
       <c r="B58" s="1">
         <v>323</v>
       </c>
-      <c r="C58" s="1">
-        <v>3766180</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -1032,7 +861,7 @@
         <v>64637</v>
       </c>
       <c r="C59" s="1">
-        <v>298068095</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/73.xlsx
+++ b/dist/document/dest/2020/10/doctors/73.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C166"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,7 +402,10 @@
         <v>Aceronko (Acenocoumarol 1mg)</v>
       </c>
       <c r="B2" s="1">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="C2" s="1">
+        <v>32200</v>
       </c>
     </row>
     <row r="3">
@@ -410,463 +413,1808 @@
         <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B3" s="1">
-        <v>2289</v>
+        <v>1044</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6003000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Atorcal 20mg (Atorvastatin)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B4" s="1">
-        <v>2489</v>
+        <v>196</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1127000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B5" s="1">
-        <v>144</v>
+        <v>28</v>
+      </c>
+      <c r="C5" s="1">
+        <v>161000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Azukon MR (Gliclazide B.P 30mg)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B6" s="1">
-        <v>638</v>
+        <v>28</v>
+      </c>
+      <c r="C6" s="1">
+        <v>161000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>BS One (Omega3 Fish Oil 1000mg)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B7" s="1">
-        <v>2407</v>
+        <v>56</v>
+      </c>
+      <c r="C7" s="1">
+        <v>322000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Benzatique (Nebivolol 5mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B8" s="1">
-        <v>2321</v>
+        <v>906</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6976200</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Bilomag (Ginkgo biloba 80mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B9" s="1">
-        <v>470</v>
+        <v>301</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2317700</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B10" s="1">
-        <v>1107</v>
+        <v>14</v>
+      </c>
+      <c r="C10" s="1">
+        <v>107800</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Bonzacim (Rosuvastatin 10mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B11" s="1">
-        <v>766</v>
+        <v>387</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2979900</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Cadigrel (Clopidogrel 75mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B12" s="1">
-        <v>2435</v>
+        <v>56</v>
+      </c>
+      <c r="C12" s="1">
+        <v>431200</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Cardorite (Rosuvastatin 20mg)</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B13" s="1">
-        <v>1295</v>
+        <v>116</v>
+      </c>
+      <c r="C13" s="1">
+        <v>893200</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Carvedol (Carvedilol 6.25mg)</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B14" s="1">
-        <v>3588</v>
+        <v>56</v>
+      </c>
+      <c r="C14" s="1">
+        <v>431200</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Cenoxib (Celecoxib 200mg)</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B15" s="1">
-        <v>98</v>
+        <v>30</v>
+      </c>
+      <c r="C15" s="1">
+        <v>231000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Chondrasil (Allopurinol 300mg)</v>
+        <v>BS One (Omega3 Fish Oil 1000mg)</v>
       </c>
       <c r="B16" s="1">
-        <v>44</v>
+        <v>210</v>
+      </c>
+      <c r="C16" s="1">
+        <v>966000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Concor 5mg (Bisoprolol )</v>
+        <v>BS One (Omega3 Fish Oil 1000mg)</v>
       </c>
       <c r="B17" s="1">
-        <v>123</v>
+        <v>91</v>
+      </c>
+      <c r="C17" s="1">
+        <v>418600</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Diamicron MR 30mg (Gliclazide)</v>
+        <v>BS One (Omega3 Fish Oil 1000mg)</v>
       </c>
       <c r="B18" s="1">
-        <v>126</v>
+        <v>1197</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5506200</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Diosfort (Diosmin 600mg)</v>
+        <v>BS One (Omega3 Fish Oil 1000mg)</v>
       </c>
       <c r="B19" s="1">
-        <v>292</v>
+        <v>30</v>
+      </c>
+      <c r="C19" s="1">
+        <v>138000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Diovan (Valsartan 160mg)</v>
+        <v>Benzatique (Nebivolol 5mg)</v>
       </c>
       <c r="B20" s="1">
-        <v>6</v>
+        <v>88</v>
+      </c>
+      <c r="C20" s="1">
+        <v>609840</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Diurefar (Furosemide 40mg)</v>
+        <v>Benzatique (Nebivolol 5mg)</v>
       </c>
       <c r="B21" s="1">
-        <v>8</v>
+        <v>28</v>
+      </c>
+      <c r="C21" s="1">
+        <v>194040</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Doaspin 81mg (Acetylsalicylic)</v>
+        <v>Benzatique (Nebivolol 5mg)</v>
       </c>
       <c r="B22" s="1">
-        <v>827</v>
+        <v>446</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3090780</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Esofar (Esomeprazole 40mg)</v>
+        <v>Benzatique (Nebivolol 5mg)</v>
       </c>
       <c r="B23" s="1">
-        <v>216</v>
+        <v>7</v>
+      </c>
+      <c r="C23" s="1">
+        <v>48510</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Glucophage 1000mg (Metformin)</v>
+        <v>Benzatique (Nebivolol 5mg)</v>
       </c>
       <c r="B24" s="1">
-        <v>126</v>
+        <v>1071</v>
+      </c>
+      <c r="C24" s="1">
+        <v>7422030</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Gluphakaps (Metformin 850mg)</v>
+        <v>Benzatique (Nebivolol 5mg)</v>
       </c>
       <c r="B25" s="1">
-        <v>2170</v>
+        <v>28</v>
+      </c>
+      <c r="C25" s="1">
+        <v>194040</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Herbesser 30mg (Diltiazem)</v>
+        <v>Bilomag (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B26" s="1">
-        <v>294</v>
+        <v>392</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2932160</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Herbesser 60mg (Diltiazem)</v>
+        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
       </c>
       <c r="B27" s="1">
-        <v>791</v>
+        <v>275</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1027125</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Imdur 30mg (Isosorbide )</v>
+        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
       </c>
       <c r="B28" s="1">
-        <v>2066</v>
+        <v>136</v>
+      </c>
+      <c r="C28" s="1">
+        <v>507960</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Imdur 60mg (Isosorbide)</v>
+        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
       </c>
       <c r="B29" s="1">
-        <v>90</v>
+        <v>133</v>
+      </c>
+      <c r="C29" s="1">
+        <v>496755</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Kogimin (Multivitamine &amp; Minerals)</v>
+        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
       </c>
       <c r="B30" s="1">
-        <v>315</v>
+        <v>14</v>
+      </c>
+      <c r="C30" s="1">
+        <v>52290</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Lipanthyl (Fenofibrate) 200mg</v>
+        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
       </c>
       <c r="B31" s="1">
-        <v>60</v>
+        <v>212</v>
+      </c>
+      <c r="C31" s="1">
+        <v>791820</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Lorista (Losartan 50mg)</v>
+        <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="B32" s="1">
-        <v>679</v>
+        <v>154</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1507660</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+        <v>Cadigrel (Clopidogrel 75mg)</v>
       </c>
       <c r="B33" s="1">
-        <v>412</v>
+        <v>58</v>
+      </c>
+      <c r="C33" s="1">
+        <v>813450</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+        <v>Cadigrel (Clopidogrel 75mg)</v>
       </c>
       <c r="B34" s="1">
-        <v>104</v>
+        <v>333</v>
+      </c>
+      <c r="C34" s="1">
+        <v>4670325</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+        <v>Cadigrel (Clopidogrel 75mg)</v>
       </c>
       <c r="B35" s="1">
-        <v>56</v>
+        <v>30</v>
+      </c>
+      <c r="C35" s="1">
+        <v>420750</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v xml:space="preserve">Mg B6 </v>
+        <v>Cadigrel (Clopidogrel 75mg)</v>
       </c>
       <c r="B36" s="1">
-        <v>384</v>
+        <v>1249</v>
+      </c>
+      <c r="C36" s="1">
+        <v>17517225</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Natrilix (Indapamide 1.5mg)</v>
+        <v>Cadigrel (Clopidogrel 75mg)</v>
       </c>
       <c r="B37" s="1">
-        <v>507</v>
+        <v>28</v>
+      </c>
+      <c r="C37" s="1">
+        <v>392700</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Normodipine (Amlodipine 5mg)</v>
+        <v>Cardorite (Rosuvastatin 20mg)</v>
       </c>
       <c r="B38" s="1">
-        <v>2233</v>
+        <v>266</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3803800</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Oftofacin (Atorvastatin 20mg)</v>
+        <v>Cardorite (Rosuvastatin 20mg)</v>
       </c>
       <c r="B39" s="1">
-        <v>368</v>
+        <v>80</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1144000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Panadol (Paracetamol)</v>
+        <v>Cardorite (Rosuvastatin 20mg)</v>
       </c>
       <c r="B40" s="1">
-        <v>14</v>
+        <v>795</v>
+      </c>
+      <c r="C40" s="1">
+        <v>11368500</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Panangin (Magnesium, potassium)</v>
+        <v>Carvedol (Carvedilol 6.25mg)</v>
       </c>
       <c r="B41" s="1">
-        <v>316</v>
+        <v>357</v>
+      </c>
+      <c r="C41" s="1">
+        <v>903210</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Philiver (Carduus, vitamin..)</v>
+        <v>Carvedol (Carvedilol 6.25mg)</v>
       </c>
       <c r="B42" s="1">
-        <v>950</v>
+        <v>388</v>
+      </c>
+      <c r="C42" s="1">
+        <v>981640</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Rosutrox (Rosuvastatin 10mg)</v>
+        <v>Carvedol (Carvedilol 6.25mg)</v>
       </c>
       <c r="B43" s="1">
-        <v>857</v>
+        <v>84</v>
+      </c>
+      <c r="C43" s="1">
+        <v>212520</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Safena (Atorvastatin 10mg)</v>
+        <v>Carvedol (Carvedilol 6.25mg)</v>
       </c>
       <c r="B44" s="1">
-        <v>1081</v>
+        <v>1720</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4351600</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Sagason (Clopidogrel 75mg)</v>
+        <v>Carvedol (Carvedilol 6.25mg)</v>
       </c>
       <c r="B45" s="1">
-        <v>1293</v>
+        <v>28</v>
+      </c>
+      <c r="C45" s="1">
+        <v>70840</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Sanaperol (Rabeprazol 20mg)</v>
+        <v>Carvedol (Carvedilol 6.25mg)</v>
       </c>
       <c r="B46" s="1">
-        <v>1012</v>
+        <v>30</v>
+      </c>
+      <c r="C46" s="1">
+        <v>75900</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Somexwell (Esomeprazole 20mg</v>
+        <v>Carvedol (Carvedilol 6.25mg)</v>
       </c>
       <c r="B47" s="1">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="C47" s="1">
+        <v>20240</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Spiromide (Spironolactone, Furosemide)</v>
+        <v>Chondrasil (Allopurinol 300mg)</v>
       </c>
       <c r="B48" s="1">
-        <v>144</v>
+        <v>28</v>
+      </c>
+      <c r="C48" s="1">
+        <v>119140</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Stilux (Rotundin 60mg)</v>
+        <v>Chondrasil (Allopurinol 300mg)</v>
       </c>
       <c r="B49" s="1">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="C49" s="1">
+        <v>59570</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Telod (Telmisartan 40mg)</v>
+        <v>Concor 2.5mg (Bisoprolol )</v>
       </c>
       <c r="B50" s="1">
-        <v>2727</v>
+        <v>18</v>
+      </c>
+      <c r="C50" s="1">
+        <v>65160</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Toropi (Lercanidipine 10mg)</v>
+        <v>Concor 5mg (Bisoprolol )</v>
       </c>
       <c r="B51" s="1">
-        <v>412</v>
+        <v>28</v>
+      </c>
+      <c r="C51" s="1">
+        <v>138040</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Trisova (Trimetazidine 20mg)</v>
+        <v>Diamicron MR 30mg (Gliclazide)</v>
       </c>
       <c r="B52" s="1">
-        <v>21802</v>
+        <v>619</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2234590</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Vastarel MR (Trimetazindine) 35mg</v>
+        <v>Diamicron MR 30mg (Gliclazide)</v>
       </c>
       <c r="B53" s="1">
-        <v>532</v>
+        <v>329</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1187690</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Verist (Betahistine 16mg)</v>
+        <v>Diosfort (Diosmin 600mg)</v>
       </c>
       <c r="B54" s="1">
-        <v>656</v>
+        <v>133</v>
+      </c>
+      <c r="C54" s="1">
+        <v>870485</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Zanedip (Lercanidipine10mg)</v>
+        <v>Diurefar (Furosemide 40mg)</v>
       </c>
       <c r="B55" s="1">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="C55" s="1">
+        <v>5145</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Zedcal-OP (Calcium, zinc, D3)</v>
+        <v>Diurefar (Furosemide 40mg)</v>
       </c>
       <c r="B56" s="1">
-        <v>42</v>
+        <v>14</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3430</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Zestril 5 (Lisinopril 5mg)</v>
+        <v>Doaspin 81mg (Acetylsalicylic)</v>
       </c>
       <c r="B57" s="1">
-        <v>63</v>
+        <v>88</v>
+      </c>
+      <c r="C57" s="1">
+        <v>26400</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+        <v>Doaspin 81mg (Acetylsalicylic)</v>
       </c>
       <c r="B58" s="1">
-        <v>323</v>
+        <v>91</v>
+      </c>
+      <c r="C58" s="1">
+        <v>27300</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B59" s="1">
+        <v>21</v>
+      </c>
+      <c r="C59" s="1">
+        <v>53130</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B60" s="1">
+        <v>196</v>
+      </c>
+      <c r="C60" s="1">
+        <v>495880</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B61" s="1">
+        <v>439</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1110670</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Herbesser 30mg (Diltiazem)</v>
+      </c>
+      <c r="B62" s="1">
+        <v>14</v>
+      </c>
+      <c r="C62" s="1">
+        <v>21560</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Herbesser 30mg (Diltiazem)</v>
+      </c>
+      <c r="B63" s="1">
+        <v>14</v>
+      </c>
+      <c r="C63" s="1">
+        <v>21560</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Herbesser 30mg (Diltiazem)</v>
+      </c>
+      <c r="B64" s="1">
+        <v>7</v>
+      </c>
+      <c r="C64" s="1">
+        <v>10780</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Herbesser 30mg (Diltiazem)</v>
+      </c>
+      <c r="B65" s="1">
+        <v>49</v>
+      </c>
+      <c r="C65" s="1">
+        <v>75460</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Herbesser 30mg (Diltiazem)</v>
+      </c>
+      <c r="B66" s="1">
+        <v>28</v>
+      </c>
+      <c r="C66" s="1">
+        <v>43120</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Herbesser 30mg (Diltiazem)</v>
+      </c>
+      <c r="B67" s="1">
+        <v>57</v>
+      </c>
+      <c r="C67" s="1">
+        <v>87780</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Herbesser 60mg (Diltiazem)</v>
+      </c>
+      <c r="B68" s="1">
+        <v>126</v>
+      </c>
+      <c r="C68" s="1">
+        <v>311220</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Herbesser 60mg (Diltiazem)</v>
+      </c>
+      <c r="B69" s="1">
+        <v>30</v>
+      </c>
+      <c r="C69" s="1">
+        <v>74100</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Imdur 30mg (Isosorbide )</v>
+      </c>
+      <c r="B70" s="1">
+        <v>95</v>
+      </c>
+      <c r="C70" s="1">
+        <v>354350</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Imdur 30mg (Isosorbide )</v>
+      </c>
+      <c r="B71" s="1">
+        <v>273</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1018290</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Imdur 30mg (Isosorbide )</v>
+      </c>
+      <c r="B72" s="1">
+        <v>281</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1048130</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Imdur 60mg (Isosorbide)</v>
+      </c>
+      <c r="B73" s="1">
+        <v>58</v>
+      </c>
+      <c r="C73" s="1">
+        <v>410060</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Imdur 60mg (Isosorbide)</v>
+      </c>
+      <c r="B74" s="1">
+        <v>58</v>
+      </c>
+      <c r="C74" s="1">
+        <v>410060</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Imdur 60mg (Isosorbide)</v>
+      </c>
+      <c r="B75" s="1">
+        <v>305</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2156350</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Kogimin (Multivitamine &amp; Minerals)</v>
+      </c>
+      <c r="B76" s="1">
+        <v>14</v>
+      </c>
+      <c r="C76" s="1">
+        <v>48300</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Kogimin (Multivitamine &amp; Minerals)</v>
+      </c>
+      <c r="B77" s="1">
+        <v>97</v>
+      </c>
+      <c r="C77" s="1">
+        <v>334650</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Lipanthyl (Fenofibrate) 200mg</v>
+      </c>
+      <c r="B78" s="1">
+        <v>28</v>
+      </c>
+      <c r="C78" s="1">
+        <v>217000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Lipanthyl (Fenofibrate) 200mg</v>
+      </c>
+      <c r="B79" s="1">
+        <v>28</v>
+      </c>
+      <c r="C79" s="1">
+        <v>217000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Lorista (Losartan 50mg)</v>
+      </c>
+      <c r="B80" s="1">
+        <v>56</v>
+      </c>
+      <c r="C80" s="1">
+        <v>309120</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Lorista (Losartan 50mg)</v>
+      </c>
+      <c r="B81" s="1">
+        <v>141</v>
+      </c>
+      <c r="C81" s="1">
+        <v>778320</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Lorista (Losartan 50mg)</v>
+      </c>
+      <c r="B82" s="1">
+        <v>81</v>
+      </c>
+      <c r="C82" s="1">
+        <v>447120</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Lorista (Losartan 50mg)</v>
+      </c>
+      <c r="B83" s="1">
+        <v>119</v>
+      </c>
+      <c r="C83" s="1">
+        <v>656880</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+      </c>
+      <c r="B84" s="1">
+        <v>28</v>
+      </c>
+      <c r="C84" s="1">
+        <v>163240</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+      </c>
+      <c r="B85" s="1">
+        <v>252</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1469160</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+      </c>
+      <c r="B86" s="1">
+        <v>56</v>
+      </c>
+      <c r="C86" s="1">
+        <v>326480</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+      </c>
+      <c r="B87" s="1">
+        <v>14</v>
+      </c>
+      <c r="C87" s="1">
+        <v>41860</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+      </c>
+      <c r="B88" s="1">
+        <v>70</v>
+      </c>
+      <c r="C88" s="1">
+        <v>209300</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+      </c>
+      <c r="B89" s="1">
+        <v>126</v>
+      </c>
+      <c r="C89" s="1">
+        <v>376740</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+      </c>
+      <c r="B90" s="1">
+        <v>28</v>
+      </c>
+      <c r="C90" s="1">
+        <v>135240</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+      </c>
+      <c r="B91" s="1">
+        <v>28</v>
+      </c>
+      <c r="C91" s="1">
+        <v>135240</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+      </c>
+      <c r="B92" s="1">
+        <v>70</v>
+      </c>
+      <c r="C92" s="1">
+        <v>338100</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+      </c>
+      <c r="B93" s="1">
+        <v>7</v>
+      </c>
+      <c r="C93" s="1">
+        <v>33810</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Metozamin (Metformin 850mg)</v>
+      </c>
+      <c r="B94" s="1">
+        <v>263</v>
+      </c>
+      <c r="C94" s="1">
+        <v>483920</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Metozamin (Metformin 850mg)</v>
+      </c>
+      <c r="B95" s="1">
+        <v>130</v>
+      </c>
+      <c r="C95" s="1">
+        <v>239200</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v xml:space="preserve">Mg B6 </v>
+      </c>
+      <c r="B96" s="1">
+        <v>28</v>
+      </c>
+      <c r="C96" s="1">
+        <v>59360</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v xml:space="preserve">Mg B6 </v>
+      </c>
+      <c r="B97" s="1">
+        <v>56</v>
+      </c>
+      <c r="C97" s="1">
+        <v>118720</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v xml:space="preserve">Mg B6 </v>
+      </c>
+      <c r="B98" s="1">
+        <v>252</v>
+      </c>
+      <c r="C98" s="1">
+        <v>534240</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Natrilix (Indapamide 1.5mg)</v>
+      </c>
+      <c r="B99" s="1">
+        <v>246</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1013520</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Natrilix (Indapamide 1.5mg)</v>
+      </c>
+      <c r="B100" s="1">
+        <v>14</v>
+      </c>
+      <c r="C100" s="1">
+        <v>57680</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B101" s="1">
+        <v>101</v>
+      </c>
+      <c r="C101" s="1">
+        <v>464600</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B102" s="1">
+        <v>238</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1094800</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B103" s="1">
+        <v>500</v>
+      </c>
+      <c r="C103" s="1">
+        <v>2300000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B104" s="1">
+        <v>28</v>
+      </c>
+      <c r="C104" s="1">
+        <v>128800</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B105" s="1">
+        <v>483</v>
+      </c>
+      <c r="C105" s="1">
+        <v>2221800</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+      </c>
+      <c r="B106" s="1">
+        <v>56</v>
+      </c>
+      <c r="C106" s="1">
+        <v>426160</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Osart (Olmesartan 20mg)</v>
+      </c>
+      <c r="B107" s="1">
+        <v>14</v>
+      </c>
+      <c r="C107" s="1">
+        <v>115500</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Panadol (Paracetamol)</v>
+      </c>
+      <c r="B108" s="1">
+        <v>10</v>
+      </c>
+      <c r="C108" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Panadol (Paracetamol)</v>
+      </c>
+      <c r="B109" s="1">
+        <v>42</v>
+      </c>
+      <c r="C109" s="1">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Panangin (Magnesium, potassium)</v>
+      </c>
+      <c r="B110" s="1">
+        <v>13</v>
+      </c>
+      <c r="C110" s="1">
+        <v>26845</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Panangin (Magnesium, potassium)</v>
+      </c>
+      <c r="B111" s="1">
+        <v>77</v>
+      </c>
+      <c r="C111" s="1">
+        <v>159005</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Panangin (Magnesium, potassium)</v>
+      </c>
+      <c r="B112" s="1">
+        <v>144</v>
+      </c>
+      <c r="C112" s="1">
+        <v>297360</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Panangin (Magnesium, potassium)</v>
+      </c>
+      <c r="B113" s="1">
+        <v>15</v>
+      </c>
+      <c r="C113" s="1">
+        <v>30975</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B114" s="1">
+        <v>364</v>
+      </c>
+      <c r="C114" s="1">
+        <v>1465100</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B115" s="1">
+        <v>84</v>
+      </c>
+      <c r="C115" s="1">
+        <v>338100</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B116" s="1">
+        <v>616</v>
+      </c>
+      <c r="C116" s="1">
+        <v>2479400</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Rosutrox (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B117" s="1">
+        <v>84</v>
+      </c>
+      <c r="C117" s="1">
+        <v>739200</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Rosutrox (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B118" s="1">
+        <v>308</v>
+      </c>
+      <c r="C118" s="1">
+        <v>2710400</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Rosutrox (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B119" s="1">
+        <v>30</v>
+      </c>
+      <c r="C119" s="1">
+        <v>264000</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Rosutrox (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B120" s="1">
+        <v>28</v>
+      </c>
+      <c r="C120" s="1">
+        <v>246400</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Rosutrox (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B121" s="1">
+        <v>112</v>
+      </c>
+      <c r="C121" s="1">
+        <v>985600</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>Safena (Atorvastatin 10mg)</v>
+      </c>
+      <c r="B122" s="1">
+        <v>14</v>
+      </c>
+      <c r="C122" s="1">
+        <v>55510</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Safena (Atorvastatin 10mg)</v>
+      </c>
+      <c r="B123" s="1">
+        <v>90</v>
+      </c>
+      <c r="C123" s="1">
+        <v>356850</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Safena (Atorvastatin 10mg)</v>
+      </c>
+      <c r="B124" s="1">
+        <v>356</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1411540</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>Safena (Atorvastatin 10mg)</v>
+      </c>
+      <c r="B125" s="1">
+        <v>28</v>
+      </c>
+      <c r="C125" s="1">
+        <v>111020</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>Safena (Atorvastatin 10mg)</v>
+      </c>
+      <c r="B126" s="1">
+        <v>131</v>
+      </c>
+      <c r="C126" s="1">
+        <v>519415</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>Sagason (Clopidogrel 75mg)</v>
+      </c>
+      <c r="B127" s="1">
+        <v>161</v>
+      </c>
+      <c r="C127" s="1">
+        <v>1239700</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>Sagason (Clopidogrel 75mg)</v>
+      </c>
+      <c r="B128" s="1">
+        <v>14</v>
+      </c>
+      <c r="C128" s="1">
+        <v>107800</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>Sagason (Clopidogrel 75mg)</v>
+      </c>
+      <c r="B129" s="1">
+        <v>541</v>
+      </c>
+      <c r="C129" s="1">
+        <v>4165700</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>Sagason (Clopidogrel 75mg)</v>
+      </c>
+      <c r="B130" s="1">
+        <v>28</v>
+      </c>
+      <c r="C130" s="1">
+        <v>215600</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>Sagason (Clopidogrel 75mg)</v>
+      </c>
+      <c r="B131" s="1">
+        <v>233</v>
+      </c>
+      <c r="C131" s="1">
+        <v>1794100</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B132" s="1">
+        <v>86</v>
+      </c>
+      <c r="C132" s="1">
+        <v>747340</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B133" s="1">
+        <v>45</v>
+      </c>
+      <c r="C133" s="1">
+        <v>391050</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B134" s="1">
+        <v>14</v>
+      </c>
+      <c r="C134" s="1">
+        <v>121660</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B135" s="1">
+        <v>401</v>
+      </c>
+      <c r="C135" s="1">
+        <v>3484690</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B136" s="1">
+        <v>28</v>
+      </c>
+      <c r="C136" s="1">
+        <v>243320</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B137" s="1">
+        <v>273</v>
+      </c>
+      <c r="C137" s="1">
+        <v>2372370</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
+      </c>
+      <c r="B138" s="1">
+        <v>56</v>
+      </c>
+      <c r="C138" s="1">
+        <v>302680</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>Somexwell (Esomeprazole 20mg</v>
+      </c>
+      <c r="B139" s="1">
+        <v>28</v>
+      </c>
+      <c r="C139" s="1">
+        <v>246400</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>Sopezid (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B140" s="1">
+        <v>56</v>
+      </c>
+      <c r="C140" s="1">
+        <v>924000</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>Sopezid (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B141" s="1">
+        <v>30</v>
+      </c>
+      <c r="C141" s="1">
+        <v>495000</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>Spiromide (Spironolactone, Furosemide)</v>
+      </c>
+      <c r="B142" s="1">
+        <v>15</v>
+      </c>
+      <c r="C142" s="1">
+        <v>50025</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>Stilux (Rotundin 60mg)</v>
+      </c>
+      <c r="B143" s="1">
+        <v>10</v>
+      </c>
+      <c r="C143" s="1">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>Stilux (Rotundin 60mg)</v>
+      </c>
+      <c r="B144" s="1">
+        <v>100</v>
+      </c>
+      <c r="C144" s="1">
+        <v>118000</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B145" s="1">
+        <v>60</v>
+      </c>
+      <c r="C145" s="1">
+        <v>455400</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B146" s="1">
+        <v>433</v>
+      </c>
+      <c r="C146" s="1">
+        <v>3286470</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B147" s="1">
+        <v>310</v>
+      </c>
+      <c r="C147" s="1">
+        <v>2352900</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B148" s="1">
+        <v>1090</v>
+      </c>
+      <c r="C148" s="1">
+        <v>8273100</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B149" s="1">
+        <v>28</v>
+      </c>
+      <c r="C149" s="1">
+        <v>212520</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B150" s="1">
+        <v>14</v>
+      </c>
+      <c r="C150" s="1">
+        <v>120120</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B151" s="1">
+        <v>105</v>
+      </c>
+      <c r="C151" s="1">
+        <v>900900</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B152" s="1">
+        <v>360</v>
+      </c>
+      <c r="C152" s="1">
+        <v>703800</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B153" s="1">
+        <v>2620</v>
+      </c>
+      <c r="C153" s="1">
+        <v>5122100</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B154" s="1">
+        <v>2813</v>
+      </c>
+      <c r="C154" s="1">
+        <v>5499415</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B155" s="1">
+        <v>7732</v>
+      </c>
+      <c r="C155" s="1">
+        <v>15116060</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B156" s="1">
+        <v>116</v>
+      </c>
+      <c r="C156" s="1">
+        <v>226780</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B157" s="1">
+        <v>182</v>
+      </c>
+      <c r="C157" s="1">
+        <v>355810</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B158" s="1">
+        <v>294</v>
+      </c>
+      <c r="C158" s="1">
+        <v>574770</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>Vastarel MR (Trimetazindine) 35mg</v>
+      </c>
+      <c r="B159" s="1">
+        <v>56</v>
+      </c>
+      <c r="C159" s="1">
+        <v>191520</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>Verist (Betahistine 16mg)</v>
+      </c>
+      <c r="B160" s="1">
+        <v>56</v>
+      </c>
+      <c r="C160" s="1">
+        <v>161000</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>Verist (Betahistine 16mg)</v>
+      </c>
+      <c r="B161" s="1">
+        <v>358</v>
+      </c>
+      <c r="C161" s="1">
+        <v>1029250</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>Voltaren 1% Emulgel 20g</v>
+      </c>
+      <c r="B162" s="1">
+        <v>2</v>
+      </c>
+      <c r="C162" s="1">
+        <v>139000</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B163" s="1">
+        <v>14</v>
+      </c>
+      <c r="C163" s="1">
+        <v>163240</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B164" s="1">
+        <v>42</v>
+      </c>
+      <c r="C164" s="1">
+        <v>489720</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B165" s="1">
+        <v>258</v>
+      </c>
+      <c r="C165" s="1">
+        <v>3008280</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B59" s="1">
-        <v>64637</v>
-      </c>
-      <c r="C59" s="1">
-        <v>NaN</v>
+      <c r="B166" s="1">
+        <v>41906</v>
+      </c>
+      <c r="C166" s="1">
+        <v>200422330</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C59"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C166"/>
   </ignoredErrors>
 </worksheet>
 </file>